--- a/ahca_data/filtered_providers.xlsx
+++ b/ahca_data/filtered_providers.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,29 +471,31 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>12344</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>6554R</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>200909099</v>
+        <v>200909100</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PANTHERS CENTER</t>
+          <t>DOLPHINS HOSPICE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AMBULATORY SURGERY CENTER</t>
+          <t>HOSPICE</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3245</v>
+        <v>98776</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -502,31 +504,29 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6554R</t>
-        </is>
+      <c r="A3" t="n">
+        <v>65636</v>
       </c>
       <c r="B3" t="n">
-        <v>200909100</v>
+        <v>200909101</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DOLPHINS HOSPICE</t>
+          <t>JACKSON HOSPITAL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HOSPICE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>98776</v>
+        <v>754455</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -536,14 +536,14 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>65636</v>
+        <v>86678</v>
       </c>
       <c r="B4" t="n">
-        <v>200909101</v>
+        <v>200909102</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JACKSON HOSPITAL</t>
+          <t>READ CENTER</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,44 +553,13 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>CHILDREN'S HOSPITAL</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>754455</v>
+        <v>43533</v>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>STATE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>86678</v>
-      </c>
-      <c r="B5" t="n">
-        <v>200909102</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>READ CENTER</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CHILDREN'S HOSPITAL</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>43533</v>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>

--- a/ahca_data/filtered_providers.xlsx
+++ b/ahca_data/filtered_providers.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,100 +473,182 @@
           <t>LICENSE_TYPE_DES</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EXPIRATION_DATE</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>6554R</t>
-        </is>
+      <c r="A2" t="n">
+        <v>12344</v>
       </c>
       <c r="B2" t="n">
-        <v>200909100</v>
+        <v>200909099</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DOLPHINS HOSPICE</t>
+          <t>MEMORIAL REGIONAL HOSPITAL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HOSPICE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>98776</v>
+        <v>4411</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>44586</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>65636</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>6554R</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>200909101</v>
+        <v>200909100</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>JACKSON HOSPITAL</t>
+          <t>SUNCOAST HOSPICE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>HOSPICE</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>754455</v>
+        <v>5032096</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>43642</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>65636</v>
+      </c>
+      <c r="B4" t="n">
+        <v>200909101</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SUNCOAST BEHAVIORAL HEALTH CENTER</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4356</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>STATE</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>86678</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>200909102</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>READ CENTER</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>FA</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>CHILDREN'S HOSPITAL</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>43533</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>45319</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>87650</v>
+      </c>
+      <c r="B6" t="n">
+        <v>205091021</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BIG BEND HOSPICE INC</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SB</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HOSPICE</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>566</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>STATE</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>45319</v>
       </c>
     </row>
   </sheetData>

--- a/ahca_data/filtered_providers.xlsx
+++ b/ahca_data/filtered_providers.xlsx
@@ -1,46 +1,148 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/Documents/purple/web-scraper/ahca_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28EFA2B-59B5-624D-80D7-9BEA2886FAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+  <si>
+    <t>FB_NUMBER</t>
+  </si>
+  <si>
+    <t>PROVIDER_ID</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>PROVIDER_CATEGORY_CD</t>
+  </si>
+  <si>
+    <t>SPECIALTY_DE</t>
+  </si>
+  <si>
+    <t>LICENSE_NB</t>
+  </si>
+  <si>
+    <t>LICENSE_TYPE_DES</t>
+  </si>
+  <si>
+    <t>EXPIRATION_DATE</t>
+  </si>
+  <si>
+    <t>MEMORIAL REGIONAL HOSPITAL</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>HOSPITAL</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>6554R</t>
+  </si>
+  <si>
+    <t>SUNCOAST HOSPICE</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>HOSPICE</t>
+  </si>
+  <si>
+    <t>SUNCOAST BEHAVIORAL HEALTH CENTER</t>
+  </si>
+  <si>
+    <t>READ CENTER</t>
+  </si>
+  <si>
+    <t>CHILDREN'S HOSPITAL</t>
+  </si>
+  <si>
+    <t>BIG BEND HOSPICE INC</t>
+  </si>
+  <si>
+    <t>BUSINESS_ENTITY_NAME</t>
+  </si>
+  <si>
+    <t>FACILITY_BED_ID</t>
+  </si>
+  <si>
+    <t>FACILITY_BED_COUNT</t>
+  </si>
+  <si>
+    <t>FACILITY_BED_START_DATE</t>
+  </si>
+  <si>
+    <t>MEME LLC</t>
+  </si>
+  <si>
+    <t>SUNCOAST FOLIFE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,94 +151,67 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,231 +499,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>FB_NUMBER</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PROVIDER_ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PROVIDER_CATEGORY_CD</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>SPECIALTY_DE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>LICENSE_NB</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>LICENSE_TYPE_DES</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>EXPIRATION_DATE</t>
-        </is>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>12344</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>200909099</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MEMORIAL REGIONAL HOSPITAL</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
         <v>4411</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>STATE</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2">
         <v>44586</v>
       </c>
+      <c r="J2">
+        <v>323</v>
+      </c>
+      <c r="K2">
+        <v>455</v>
+      </c>
+      <c r="L2" s="5">
+        <v>43831</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6554R</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>200909100</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SUNCOAST HOSPICE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SB</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HOSPICE</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
         <v>5032096</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>STATE</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2">
         <v>43642</v>
       </c>
+      <c r="J3">
+        <v>4455</v>
+      </c>
+      <c r="K3">
+        <v>77</v>
+      </c>
+      <c r="L3" s="5">
+        <v>43832</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>65636</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>200909101</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SUNCOAST BEHAVIORAL HEALTH CENTER</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
         <v>4356</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>STATE</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2">
         <v>45306</v>
       </c>
+      <c r="J4">
+        <v>2242</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4" s="5">
+        <v>43833</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>86678</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>200909102</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>READ CENTER</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CHILDREN'S HOSPITAL</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
         <v>43533</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>STATE</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2">
         <v>45319</v>
       </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>45</v>
+      </c>
+      <c r="L5" s="5">
+        <v>43834</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>87650</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>205091021</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>BIG BEND HOSPICE INC</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SB</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HOSPICE</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
         <v>566</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>STATE</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2">
         <v>45319</v>
+      </c>
+      <c r="J6">
+        <v>55</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>43835</v>
       </c>
     </row>
   </sheetData>

--- a/ahca_data/filtered_providers.xlsx
+++ b/ahca_data/filtered_providers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/Documents/purple/web-scraper/ahca_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28EFA2B-59B5-624D-80D7-9BEA2886FAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635A2C9A-85AE-804D-9B4F-AEF559F7A5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>FB_NUMBER</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>SUNCOAST FOLIFE</t>
+  </si>
+  <si>
+    <t>AMEDISYS HOSPICE</t>
+  </si>
+  <si>
+    <t>AHCA</t>
   </si>
 </sst>
 </file>
@@ -105,8 +111,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -120,6 +126,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -128,18 +135,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -185,18 +186,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -500,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -556,7 +559,7 @@
       <c r="K1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -570,16 +573,16 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="8">
         <v>4411</v>
       </c>
       <c r="H2" t="s">
@@ -605,19 +608,19 @@
       <c r="B3">
         <v>200909100</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>5032096</v>
       </c>
       <c r="H3" t="s">
@@ -646,13 +649,14 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="8">
         <v>4356</v>
       </c>
       <c r="H4" t="s">
@@ -681,13 +685,14 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="8">
         <v>43533</v>
       </c>
       <c r="H5" t="s">
@@ -716,13 +721,14 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="8">
         <v>566</v>
       </c>
       <c r="H6" t="s">
@@ -740,6 +746,39 @@
       <c r="L6" s="5">
         <v>43835</v>
       </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>54456</v>
+      </c>
+      <c r="B7">
+        <v>205091021</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="8">
+        <v>50370975</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ahca_data/filtered_providers.xlsx
+++ b/ahca_data/filtered_providers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/Documents/purple/web-scraper/ahca_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635A2C9A-85AE-804D-9B4F-AEF559F7A5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4466F7DB-9A6B-E147-B6AF-4526F34B95EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>FB_NUMBER</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>AHCA</t>
+  </si>
+  <si>
+    <t>BIG BENDER</t>
   </si>
 </sst>
 </file>
@@ -181,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -200,7 +203,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -573,16 +575,16 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2">
         <v>4411</v>
       </c>
       <c r="H2" t="s">
@@ -611,16 +613,16 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3">
         <v>5032096</v>
       </c>
       <c r="H3" t="s">
@@ -649,14 +651,13 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4">
         <v>4356</v>
       </c>
       <c r="H4" t="s">
@@ -685,14 +686,13 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5">
         <v>43533</v>
       </c>
       <c r="H5" t="s">
@@ -721,14 +721,16 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6">
         <v>566</v>
       </c>
       <c r="H6" t="s">
@@ -757,14 +759,13 @@
       <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7">
         <v>50370975</v>
       </c>
       <c r="H7" t="s">
@@ -773,12 +774,6 @@
       <c r="I7" s="2">
         <v>45320</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
